--- a/biology/Médecine/René_Martineau/René_Martineau.xlsx
+++ b/biology/Médecine/René_Martineau/René_Martineau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Martineau</t>
+          <t>René_Martineau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Martineau (né en 1510, mort le 25 juin 1573 à Auxerre, est un médecin français qui fut notamment médecin des rois de France François II et Charles IX.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Martineau</t>
+          <t>René_Martineau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de la Sarthe, il fait ses études à Paris et y est reçu docteur en médecine. Il est ensuite choisi pour conduire en Italie les enfants du maréchal de Cossé. Pendant ce voyage, qui dura douze ans, il est reçu docteur de l'Université de Bologne. Revenant à Paris avec les enfants qui lui avaient été confiés, leur père, Artus de Cossé-Brissac, présente Martineau au roi François II. Ce monarque le nomme l'un de ses médecins ; position qu'il conserve, avec le titre de conseiller du roi, sous Charles IX de France.
 Il cède en 1554 aux instances de son ami Monseigneur de Dinteville, évêque d'Auxerre, et vient se fixer auprès de ce prélat.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Martineau</t>
+          <t>René_Martineau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>J. Lebeuf, A. Challe, M. Quantin, Mémoires concernant l'histoire civile et ecclésiastique d'Auxerre et de son ancien diocese, Vol. 4, Ed. Perriquet, 1855 [1]
-Livre d'or de la Noblesse, Marquis de Magny, 1846 [2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>J. Lebeuf, A. Challe, M. Quantin, Mémoires concernant l'histoire civile et ecclésiastique d'Auxerre et de son ancien diocese, Vol. 4, Ed. Perriquet, 1855 
+Livre d'or de la Noblesse, Marquis de Magny, 1846 
 Société des sciences historiques et naturelles de l'Yonne, Auxerre, 1974</t>
         </is>
       </c>
